--- a/Iteration 9/6. ERROR LOGS/defect_log #9.xlsx
+++ b/Iteration 9/6. ERROR LOGS/defect_log #9.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuj0072\Downloads\BCPR280_Software_Engineering_2_Assignment1\Iteration 8\6. ERROR LOGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ICT Courses material\BCPR280 Software Engineering 2\BCPR280_Software_Engineering_2_Assignment1\Iteration 9\6. ERROR LOGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA63382-089D-4844-88F2-51DB1CB22BE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>PSP Defect Recording Log</t>
   </si>
@@ -618,71 +619,54 @@
     <t>design</t>
   </si>
   <si>
-    <t>WC</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>MI-TY</t>
-  </si>
-  <si>
-    <t>forget to reset this.lowerLimit in setup()</t>
-  </si>
-  <si>
-    <t>forget to reset this.higherLimit in setup()</t>
-  </si>
-  <si>
-    <t>Forget to add return response when the user responds "Correct!"</t>
-  </si>
-  <si>
-    <t>(this.upperLimit - this.lowerLimit) / 2) should be (this.upperLimit + this.lowerLimit) / 2)</t>
-  </si>
-  <si>
-    <t>miss $ for literal template</t>
-  </si>
-  <si>
-    <t>miss a condition of upperLimit is lower than lowerLimit</t>
-  </si>
-  <si>
-    <t>should create a method to pass user's reponse to guesser3</t>
-  </si>
-  <si>
-    <t>event handler for input button should change to replyUserResponse</t>
-  </si>
-  <si>
-    <t>forget to add v-model= "userResponse" into &lt;input&gt;</t>
-  </si>
-  <si>
-    <t>1 mins</t>
-  </si>
-  <si>
-    <t>2 mins</t>
-  </si>
-  <si>
-    <t>5 mins</t>
-  </si>
-  <si>
-    <t>4 mins</t>
-  </si>
-  <si>
-    <t>3 mins</t>
-  </si>
-  <si>
-    <t>https://vuejs.org/v2/guide/forms.html</t>
-  </si>
-  <si>
-    <t>should create a method app3Setup() for app3</t>
-  </si>
-  <si>
-    <t>WA</t>
+    <t>Math.round(indexCounter/3) should be Math.round(indexCounter%3)</t>
+  </si>
+  <si>
+    <t>forget to reset this.gap = 40</t>
+  </si>
+  <si>
+    <t>forget to reset this.oldGgap = 40</t>
+  </si>
+  <si>
+    <t>forget to change Guesser3() to Guesser4()</t>
+  </si>
+  <si>
+    <t>The initial guess number should be 0 instead of 50</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>The range of random generated guessNumber should be between 0 to 59 in Cold test</t>
+  </si>
+  <si>
+    <t>The range of random generated guessNumber should be between 0 to 69 in Cool test</t>
+  </si>
+  <si>
+    <t>The range of random generated guessNumber should be between 0 to 89 in Warm test</t>
+  </si>
+  <si>
+    <t>The range of random generated guessNumber should be between 0 to 98 in Hot test</t>
+  </si>
+  <si>
+    <t>2 min</t>
+  </si>
+  <si>
+    <t>Miss the test which detects the user replies a coolder response
+after a hotter response</t>
+  </si>
+  <si>
+    <t>MI-CM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,14 +722,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -934,11 +910,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1009,10 +984,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1104,6 +1077,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1139,6 +1129,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1314,28 +1321,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="52.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1343,7 +1350,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1351,7 +1358,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1359,7 +1366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,15 +1392,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
-        <v>43355</v>
+        <v>43356</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
@@ -1402,7 +1409,7 @@
         <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
         <v>69</v>
@@ -1411,15 +1418,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
-        <v>43355</v>
+        <v>43356</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
         <v>64</v>
@@ -1428,7 +1435,7 @@
         <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
         <v>69</v>
@@ -1437,15 +1444,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
-        <v>43355</v>
+        <v>43356</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -1454,24 +1461,24 @@
         <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
         <v>69</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
-        <v>43355</v>
+        <v>43356</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -1480,24 +1487,24 @@
         <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
         <v>69</v>
       </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
-        <v>43355</v>
+        <v>43356</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
@@ -1506,24 +1513,24 @@
         <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
         <v>69</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
-        <v>43355</v>
+        <v>43356</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
@@ -1532,44 +1539,44 @@
         <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
         <v>69</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
-        <v>43355</v>
+        <v>43356</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
         <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
         <v>69</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
-        <v>43355</v>
+        <v>43356</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1578,24 +1585,24 @@
         <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
         <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H14" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
-        <v>43355</v>
+        <v>43356</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -1610,18 +1617,18 @@
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
-        <v>43355</v>
+        <v>43356</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -1636,170 +1643,155 @@
         <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>89</v>
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H57" s="6"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="91" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="91" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
@@ -1807,13 +1799,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
@@ -1821,13 +1813,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>19</v>
       </c>
@@ -1835,19 +1827,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
       <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>23</v>
       </c>
@@ -1855,13 +1847,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -1869,7 +1861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>27</v>
       </c>
@@ -1877,13 +1869,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
@@ -1891,13 +1883,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>6</v>
       </c>
@@ -1905,13 +1897,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
       <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>7</v>
       </c>
@@ -1919,7 +1911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>8</v>
       </c>
@@ -1927,13 +1919,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>37</v>
       </c>
@@ -1941,13 +1933,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>10</v>
       </c>
@@ -1955,18 +1947,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>41</v>
       </c>
@@ -1977,7 +1969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>10</v>
       </c>
@@ -1988,7 +1980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>20</v>
       </c>
@@ -1999,7 +1991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>30</v>
       </c>
@@ -2010,7 +2002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>40</v>
       </c>
@@ -2021,7 +2013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <v>50</v>
       </c>
@@ -2032,7 +2024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17">
         <v>60</v>
       </c>
@@ -2043,7 +2035,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <v>70</v>
       </c>
@@ -2054,7 +2046,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <v>80</v>
       </c>
@@ -2065,7 +2057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <v>90</v>
       </c>
@@ -2076,7 +2068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <v>100</v>
       </c>
@@ -2087,7 +2079,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
     </row>
   </sheetData>

--- a/Iteration 9/6. ERROR LOGS/defect_log #9.xlsx
+++ b/Iteration 9/6. ERROR LOGS/defect_log #9.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ICT Courses material\BCPR280 Software Engineering 2\BCPR280_Software_Engineering_2_Assignment1\Iteration 9\6. ERROR LOGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuj0072\Downloads\Iteration 9\6. ERROR LOGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA63382-089D-4844-88F2-51DB1CB22BE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,16 +621,7 @@
     <t>Math.round(indexCounter/3) should be Math.round(indexCounter%3)</t>
   </si>
   <si>
-    <t>forget to reset this.gap = 40</t>
-  </si>
-  <si>
-    <t>forget to reset this.oldGgap = 40</t>
-  </si>
-  <si>
     <t>forget to change Guesser3() to Guesser4()</t>
-  </si>
-  <si>
-    <t>The initial guess number should be 0 instead of 50</t>
   </si>
   <si>
     <t>1 min</t>
@@ -660,12 +650,21 @@
   </si>
   <si>
     <t>MI-CM</t>
+  </si>
+  <si>
+    <t>"==" should be "==="</t>
+  </si>
+  <si>
+    <t>forget to pass parameters into randomInt()</t>
+  </si>
+  <si>
+    <t>lie counter is expected to be 300 not 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1077,23 +1076,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1129,23 +1111,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1321,28 +1286,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="52.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1350,7 +1315,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1358,7 +1323,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1366,7 +1331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>43356</v>
       </c>
@@ -1409,16 +1374,16 @@
         <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>43356</v>
       </c>
@@ -1426,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
         <v>64</v>
@@ -1435,16 +1400,16 @@
         <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
         <v>69</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>43356</v>
       </c>
@@ -1452,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -1461,16 +1426,16 @@
         <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
         <v>69</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>43356</v>
       </c>
@@ -1478,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -1487,16 +1452,16 @@
         <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
         <v>69</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>43356</v>
       </c>
@@ -1504,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
@@ -1513,16 +1478,16 @@
         <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
         <v>69</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>43356</v>
       </c>
@@ -1530,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
@@ -1539,16 +1504,16 @@
         <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
         <v>69</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>43356</v>
       </c>
@@ -1556,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
@@ -1565,7 +1530,7 @@
         <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
         <v>69</v>
@@ -1574,7 +1539,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>43356</v>
       </c>
@@ -1591,16 +1556,16 @@
         <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
         <v>69</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>43356</v>
       </c>
@@ -1617,16 +1582,16 @@
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
         <v>69</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>43356</v>
       </c>
@@ -1643,126 +1608,126 @@
         <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
         <v>69</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H53" s="6"/>
     </row>
   </sheetData>
@@ -1772,26 +1737,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="91" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="91" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78" customWidth="1"/>
-    <col min="3" max="3" width="54.44140625" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
@@ -1799,13 +1764,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
@@ -1813,13 +1778,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>19</v>
       </c>
@@ -1827,19 +1792,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>23</v>
       </c>
@@ -1847,13 +1812,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
@@ -1861,7 +1826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>27</v>
       </c>
@@ -1869,13 +1834,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
@@ -1883,13 +1848,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>6</v>
       </c>
@@ -1897,13 +1862,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
       <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>7</v>
       </c>
@@ -1911,7 +1876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>8</v>
       </c>
@@ -1919,13 +1884,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>37</v>
       </c>
@@ -1933,13 +1898,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>10</v>
       </c>
@@ -1947,18 +1912,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>41</v>
       </c>
@@ -1969,7 +1934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>10</v>
       </c>
@@ -1980,7 +1945,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>20</v>
       </c>
@@ -1991,7 +1956,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>30</v>
       </c>
@@ -2002,7 +1967,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>40</v>
       </c>
@@ -2013,7 +1978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>50</v>
       </c>
@@ -2024,7 +1989,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>60</v>
       </c>
@@ -2035,7 +2000,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>70</v>
       </c>
@@ -2046,7 +2011,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>80</v>
       </c>
@@ -2057,7 +2022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>90</v>
       </c>
@@ -2068,7 +2033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>100</v>
       </c>
@@ -2079,7 +2044,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
     </row>
   </sheetData>
